--- a/biology/Médecine/Syndrome_de_Sweet/Syndrome_de_Sweet.xlsx
+++ b/biology/Médecine/Syndrome_de_Sweet/Syndrome_de_Sweet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Sweet est une affection rare associant une importante éruption fébrile de papulonodules, un œdème infiltré et une augmentation de la population neutrophile sanguine. Il peut être idiopathique — dans sa forme classique —, associé à un cancer ou pharmaco-induit.
 Cette maladie, également appelée dermatose aiguë fébrile neutrophilique, touche le plus souvent la population féminine de 30 à 50 ans.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le docteur Robert Douglas Sweet qui décrivit pour la première fois ce syndrome en 1964[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le docteur Robert Douglas Sweet qui décrivit pour la première fois ce syndrome en 1964.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différents noms décrivent parfois la même affection : syndrome de Sweet, dermatose aiguë fébrile neutrophilique, ou encore maladie de Gomm-Button, évoquant par leurs noms les deux premières patientes examinées dans le service du Dr Sweet[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différents noms décrivent parfois la même affection : syndrome de Sweet, dermatose aiguë fébrile neutrophilique, ou encore maladie de Gomm-Button, évoquant par leurs noms les deux premières patientes examinées dans le service du Dr Sweet,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa forme idiopathique, ou classique (CSS, pour l'anglais : classical Sweet's syndrome), cette affection touche la population féminine de 30 à 50 ans environ[1],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa forme idiopathique, ou classique (CSS, pour l'anglais : classical Sweet's syndrome), cette affection touche la population féminine de 30 à 50 ans environ,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La forme idiopathique est classiquement précédée d'un épisode d'infection respiratoire[3] ; elle peut également être associée à une maladie inflammatoire chronique de l'intestin ou à une grossesse. Puis elle rassemble et présente[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La forme idiopathique est classiquement précédée d'un épisode d'infection respiratoire ; elle peut également être associée à une maladie inflammatoire chronique de l'intestin ou à une grossesse. Puis elle rassemble et présente :
 une fièvre (38 °C et plus) ;
 des douleurs, notamment articulaires (arthralgies) ;
 une sensation de fatigue ;
@@ -642,10 +662,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Sweet ne trouve pas d'explication pathogénique définitive.
-Une réponse immunologique dépendant de lymphocytes T et dirigée contre des antigènes encore inconnus pourrait expliquer l'affection[3].
+Une réponse immunologique dépendant de lymphocytes T et dirigée contre des antigènes encore inconnus pourrait expliquer l'affection.
 </t>
         </is>
       </c>
@@ -674,7 +696,9 @@
           <t>Examen complémentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La biopsie cutanée peut aider au diagnostic et montrerait un important œdème sous-épidermique riche en polynucléaires neutrophiles, sans signes de nécrose.
 </t>
@@ -705,9 +729,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez deux tiers des patientes, le syndrome de Sweet évolue favorablement vers la guérison spontanée en moins de deux mois[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez deux tiers des patientes, le syndrome de Sweet évolue favorablement vers la guérison spontanée en moins de deux mois.
 </t>
         </is>
       </c>
@@ -736,7 +762,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Corticostéroïdes
 Il est possible que la maladie récidive, dans ce cas une surveillance biologique de la formule sanguine est conseillée.</t>
